--- a/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
+++ b/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
@@ -18,9 +18,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>宜蘭縣員山鄉湖北段04090000地號</t>
+  </si>
+  <si>
+    <t>宜蘭縣員山鄉船仔頭段02080000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>陳歐珀</t>
+  </si>
+  <si>
+    <t>75年</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>tmpe4f31</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,40 +116,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>宜蘭縣員山鄉湖北段0409-0000 地號</t>
-  </si>
-  <si>
-    <t>宜蘭縣員山鄉船仔頭段 0208-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>陳歐珀</t>
-  </si>
-  <si>
-    <t>75年</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>宜蘭縣員山郷湖北村4鄰大湖五 路</t>
+    <t>宜蘭縣員山郷湖北村4鄰大湖五路</t>
   </si>
   <si>
     <t>宜蘭縣員山鄕湖北村4鄰大湖路</t>
   </si>
   <si>
-    <t>100000 分 之 8333</t>
-  </si>
-  <si>
-    <t>陳歐珀•</t>
+    <t>100000分之8333</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -89,7 +137,7 @@
     <t>TOYOTA</t>
   </si>
   <si>
-    <t>101 年 02 月</t>
+    <t>101年02月</t>
   </si>
   <si>
     <t>買賣</t>
@@ -143,7 +191,7 @@
     <t>宜蘭市信用合作社</t>
   </si>
   <si>
-    <t>101年04月 10 H</t>
+    <t>101年04月10H</t>
   </si>
   <si>
     <t>資金週轉</t>
@@ -505,13 +553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,57 +581,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1774.46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1753</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>3011.7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1753</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -601,25 +712,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -627,25 +738,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -653,25 +764,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>16.77</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -689,22 +800,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -712,19 +823,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>1500000</v>
@@ -745,13 +856,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -759,13 +870,13 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -773,13 +884,13 @@
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -797,22 +908,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -820,22 +931,22 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
+++ b/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>宜蘭縣員山鄉湖北段04090000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>宜蘭縣員山鄉船仔頭段02080000地號</t>
@@ -95,27 +98,6 @@
     <t>tmpe4f31</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>宜蘭縣員山郷湖北村4鄰大湖五路</t>
   </si>
   <si>
@@ -125,15 +107,6 @@
     <t>100000分之8333</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>TOYOTA</t>
   </si>
   <si>
@@ -143,46 +116,19 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>鑫添鑫终生壽險</t>
+  </si>
+  <si>
+    <t>徐慧諭</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
-    <t>鑫添鑫终生壽險</t>
-  </si>
-  <si>
     <t>鴻利旺分红養老保險</t>
-  </si>
-  <si>
-    <t>徐慧諭</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時.間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>抵押貸款</t>
@@ -553,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,99 +548,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1774.46</v>
+        <v>3011.7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M2" s="2">
         <v>1753</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>3011.7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1753</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,77 +623,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C1" s="1">
+        <v>35</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16.77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
         <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2">
-        <v>16.77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -792,52 +677,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G1" s="1">
         <v>1500000</v>
       </c>
     </row>
@@ -848,7 +710,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -856,41 +718,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -900,53 +748,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
+++ b/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>宜蘭縣員山鄉湖北段04090000地號</t>
   </si>
   <si>
     <t>宜蘭縣員山鄉船仔頭段02080000地號</t>
@@ -499,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,54 +560,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3011.7</v>
+        <v>1774.46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2">
         <v>1753</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
+        <v>1774.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3011.7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1753</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>3011.7</v>
       </c>
     </row>
@@ -615,59 +671,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="2">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1753</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
         <v>16.77</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1753</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.08333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1.3974441</v>
       </c>
     </row>
   </sheetData>
@@ -677,29 +840,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1">
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2">
         <v>1500000</v>
       </c>
     </row>
@@ -710,7 +896,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -718,27 +904,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>74</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -748,30 +948,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
+++ b/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>100000分之8333</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>TOYOTA</t>
@@ -840,38 +843,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -880,13 +904,34 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2">
         <v>1500000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1753</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -904,13 +949,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -918,13 +963,13 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -932,13 +977,13 @@
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -956,22 +1001,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -979,22 +1024,22 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
+++ b/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -110,6 +110,9 @@
     <t>100000分之8333</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>買賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -756,7 +762,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>24</v>
@@ -809,7 +815,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
@@ -854,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -895,7 +901,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -904,16 +910,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
         <v>1500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -949,13 +955,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -963,13 +969,13 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -977,13 +983,13 @@
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1001,22 +1007,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1024,22 +1030,22 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
+++ b/legislator/property/output/normal/陳歐珀_2012-05-01_財產申報表_tmpe4f31.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -128,19 +128,31 @@
     <t>car</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>鑫添鑫终生壽險</t>
   </si>
   <si>
+    <t>鴻利旺分红養老保險</t>
+  </si>
+  <si>
     <t>徐慧諭</t>
   </si>
   <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>鴻利旺分红養老保險</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>抵押貸款</t>
@@ -153,6 +165,9 @@
   </si>
   <si>
     <t>資金週轉</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -947,49 +962,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1753</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1753</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -999,53 +1077,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1753</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
